--- a/ValueSet-hiv-c-de42.xlsx
+++ b/ValueSet-hiv-c-de42.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:28:50+00:00</t>
+    <t>2024-05-31T12:30:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-c-de42.xlsx
+++ b/ValueSet-hiv-c-de42.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:30:05+00:00</t>
+    <t>2024-05-31T12:58:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hiv-c-de42.xlsx
+++ b/ValueSet-hiv-c-de42.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:58:44+00:00</t>
+    <t>2024-06-04T14:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
